--- a/gmm/inventary.xlsx
+++ b/gmm/inventary.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\_coll\LaMarmotta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\Rdev\gmm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA9A378-59F6-4F2C-B43C-3CFE489DD35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFAF737-93E0-4F7B-A6CA-9756A09D72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet11" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>01_19945_A_2000</t>
   </si>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7B0C1-22C4-4D96-8DF3-0E3FF26997C1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,22 +409,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -432,10 +416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,9 +438,33 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/gmm/inventary.xlsx
+++ b/gmm/inventary.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\Rdev\gmm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFAF737-93E0-4F7B-A6CA-9756A09D72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3558736-59D6-494C-9ABC-004E282E3391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>01_19945_A_2000</t>
   </si>
@@ -372,54 +371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7B0C1-22C4-4D96-8DF3-0E3FF26997C1}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
